--- a/Ejercicios OZ/Ejercicio 3.xlsx
+++ b/Ejercicios OZ/Ejercicio 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-30" windowWidth="22185" windowHeight="12795" activeTab="5"/>
+    <workbookView xWindow="-60" yWindow="-30" windowWidth="22185" windowHeight="12795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="162">
   <si>
     <t>local B in</t>
   </si>
@@ -162,24 +162,15 @@
     <t>PASO 6</t>
   </si>
   <si>
-    <t>{x1=4,z1=7,a1,b1,p1=proc(X Y) &lt;sp&gt; end,{})}</t>
-  </si>
-  <si>
     <t>PASO 7</t>
   </si>
   <si>
-    <t>{x1=4,z1=7,a1=11,b1,p1=proc(X Y) &lt;sp&gt; end,{})}</t>
-  </si>
-  <si>
     <t>PASO 8</t>
   </si>
   <si>
     <t>PASO 9</t>
   </si>
   <si>
-    <t>{x1=4,z1=7,a1=11,b1=18,p1=proc(X Y) &lt;sp&gt; end,{})}</t>
-  </si>
-  <si>
     <t>FIN</t>
   </si>
   <si>
@@ -192,39 +183,6 @@
     <t>Z=2</t>
   </si>
   <si>
-    <t>&lt;s3_3&gt;</t>
-  </si>
-  <si>
-    <t>&lt;s3_4&gt;</t>
-  </si>
-  <si>
-    <t>(&lt;s3_1&gt;,E'')</t>
-  </si>
-  <si>
-    <t>(&lt;s3_2&gt;,E'')</t>
-  </si>
-  <si>
-    <t>(&lt;s3_3&gt;,E'')</t>
-  </si>
-  <si>
-    <t>(&lt;s3_4&gt;,E'')</t>
-  </si>
-  <si>
-    <t>E''={Z-&gt;z2,X -&gt; x1, A -&gt;a1, B-&gt; b1, P -&gt; p1 }</t>
-  </si>
-  <si>
-    <t>E'''={X-&gt;x1,Y-&gt;a1,Z-&gt;z2}</t>
-  </si>
-  <si>
-    <t>E'' = {X-&gt;x1,Y-&gt;a1, Z-&gt;z1}</t>
-  </si>
-  <si>
-    <t>E''' = {X-&gt;a1,Y-&gt;b1, Z-&gt;z1}</t>
-  </si>
-  <si>
-    <t>E''''={X-&gt;a1,Y-&gt;b1,Z-&gt;z2}</t>
-  </si>
-  <si>
     <t>local X Y Z P Q in</t>
   </si>
   <si>
@@ -303,36 +261,15 @@
     <t>&lt;sp_1&gt;</t>
   </si>
   <si>
-    <t>{x1,z1,a1,b1,p1 = proc(X Y) &lt;sp&gt; end,{})}</t>
-  </si>
-  <si>
-    <t>(&lt;sp&gt;, E')</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>{x1,z1 = 7,a1,b1,p1 = proc(X Y) &lt;sp&gt; end,{})}</t>
-  </si>
-  <si>
-    <t>{x1 = 4,z1 = 7,a1,b1,p1 = proc(X Y) &lt;sp&gt; end,{})}</t>
-  </si>
-  <si>
     <t>PASO 10</t>
   </si>
   <si>
     <t>(&lt;sp_1&gt;,E''')</t>
   </si>
   <si>
-    <t>(&lt;sp_1&gt;,E'')</t>
-  </si>
-  <si>
-    <t>{x1,z1,a1,b1,p1 =proc(X Y) &lt;sp&gt; end,{})}</t>
-  </si>
-  <si>
-    <t>(&lt;sp_1&gt;,E'''')</t>
-  </si>
-  <si>
     <t>PASO 11</t>
   </si>
   <si>
@@ -345,24 +282,6 @@
     <t>{x1=6,y1=4,z1,p1,q1}</t>
   </si>
   <si>
-    <t>{x1,z1=10,a1,b1,p1=proc(X Y) &lt;sp&gt; end,{})}</t>
-  </si>
-  <si>
-    <t>{x1,z1=10,a1,b1,p1 =proc(X Y) &lt;sp&gt; end,{}),z2}</t>
-  </si>
-  <si>
-    <t>{x1,z1=10,a1,b1,p1=proc(X Y) &lt;sp&gt; end,{}),z2=2}</t>
-  </si>
-  <si>
-    <t>{x1=4,z1=10,a1,b1,p1 =proc(X Y) &lt;sp&gt; end,{}),z2=2}</t>
-  </si>
-  <si>
-    <t>{x1=4,z1=10,a1=6,b1,p1 =proc(X Y) &lt;sp&gt; end,{}),z2=2}</t>
-  </si>
-  <si>
-    <t>{x1=4,z1=10,a1=6,b1=8,p1 =proc(X Y) &lt;sp&gt; end,{}),z2=2}</t>
-  </si>
-  <si>
     <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1}</t>
   </si>
   <si>
@@ -372,9 +291,6 @@
     <t>E''={A-&gt;x1,B-&gt;q1}</t>
   </si>
   <si>
-    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{}}</t>
-  </si>
-  <si>
     <t>&lt;sp2_1&gt;,E'''</t>
   </si>
   <si>
@@ -384,15 +300,6 @@
     <t>&lt;sp2_1_1&gt;,E4</t>
   </si>
   <si>
-    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{},f1}</t>
-  </si>
-  <si>
-    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{},f1=7}</t>
-  </si>
-  <si>
-    <t>{x1=6,y1=4,z1=11,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{},f1=7}</t>
-  </si>
-  <si>
     <t>E'''={U-&gt;y1,V-&gt;z1,A-&gt;x1}</t>
   </si>
   <si>
@@ -478,6 +385,126 @@
   </si>
   <si>
     <t>Browse(1#1#10)</t>
+  </si>
+  <si>
+    <t>&lt;s6&gt;</t>
+  </si>
+  <si>
+    <t>(&lt;s6&gt;,E')</t>
+  </si>
+  <si>
+    <t>s = {}</t>
+  </si>
+  <si>
+    <t>s={x1,z1,a1,b1,p1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASO 7 </t>
+  </si>
+  <si>
+    <t>(&lt;s2_1&gt;,E'')</t>
+  </si>
+  <si>
+    <t>E''={X-&gt;x1,Y-&gt;a1,Z-&gt;z1}</t>
+  </si>
+  <si>
+    <t>(&lt;s2_1&gt;,E''')</t>
+  </si>
+  <si>
+    <t>E'''={X-&gt;a1,Y-&gt;b1,Z-&gt;z1}</t>
+  </si>
+  <si>
+    <t>&lt;s4_1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s4_2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s4_3&gt;</t>
+  </si>
+  <si>
+    <t>&lt;s4_4&gt;</t>
+  </si>
+  <si>
+    <t>E' = {X-&gt;x1,Z-&gt;z1,A-&gt;a1,B-&gt;b1,P-&gt;p1 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASO 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASO 5 </t>
+  </si>
+  <si>
+    <t>(&lt;s4_1&gt;,E'')</t>
+  </si>
+  <si>
+    <t>(&lt;s4_2&gt;,E'')</t>
+  </si>
+  <si>
+    <t>(&lt;s4_3&gt;,E'')</t>
+  </si>
+  <si>
+    <t>(&lt;s4_4&gt;,E'')</t>
+  </si>
+  <si>
+    <t>E'' = {X-&gt;x1,Z-&gt;z2,A-&gt;a1,B-&gt;b1,P-&gt;p1 }</t>
+  </si>
+  <si>
+    <t>(&lt;sp_1&gt;,E4)</t>
+  </si>
+  <si>
+    <t>s={x1,z1,a1,b1,p1=(proc{$ X Y}&lt;s2_1&gt;,end,{Z-&gt;z1})}</t>
+  </si>
+  <si>
+    <t>s={x1,z1=7,a1,b1,p1=(proc{$ X Y}&lt;s2_1&gt;,end,{Z-&gt;z1})}</t>
+  </si>
+  <si>
+    <t>s={x1=4,z1=7,a1,b1,p1=(proc{$ X Y}&lt;s2_1&gt;,end,{Z-&gt;z1})}</t>
+  </si>
+  <si>
+    <t>s={x1=4,z1=7,a1=11,b1,p1=(proc{$ X Y}&lt;s2_1&gt;,end,{Z-&gt;z1})}</t>
+  </si>
+  <si>
+    <t>s={x1=4,z1=7,a1=11,b1=18,p1=(proc{$ X Y}&lt;s2_1&gt;,end,{Z-&gt;z1})}</t>
+  </si>
+  <si>
+    <t>{x1,z1,a1,b1,p1 =proc(X Y) &lt;sp&gt; end,{Z-&gt;z1})}</t>
+  </si>
+  <si>
+    <t>{x1,z1=10,a1,b1,p1=proc(X Y) &lt;sp&gt; end,{Z-&gt;z1})}</t>
+  </si>
+  <si>
+    <t>{x1,z1=10,a1,b1,p1 =proc(X Y) &lt;sp&gt; end,{Z-&gt;z1}),z2}</t>
+  </si>
+  <si>
+    <t>{x1,z1=10,a1,b1,p1=proc(X Y) &lt;sp&gt; end,{Z-&gt;z1}),z2=2}</t>
+  </si>
+  <si>
+    <t>{x1=4,z1=10,a1,b1,p1 =proc(X Y) &lt;sp&gt; end,{Z1-&gt;z1}),z2=2}</t>
+  </si>
+  <si>
+    <t>{x1=4,z1=10,a1=14,b1,p1 =proc(X Y) &lt;sp&gt; end,{Z-&gt;z1}),z2=2}</t>
+  </si>
+  <si>
+    <t>E'''={X-&gt;x1,Y-&gt;a1,Z-&gt;z1}</t>
+  </si>
+  <si>
+    <t>E4={X-&gt;a1,Y-&gt;b1,Z-&gt;1}</t>
+  </si>
+  <si>
+    <t>{x1=4,z1=10,a1=14,b1=24,p1 =proc(X Y) &lt;sp&gt; end,{Z-&gt;z1}),z2=2}</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{A-&gt;x1}}</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{A-&gt;x1},f1}</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{A-&gt;x1},f1=7}</t>
+  </si>
+  <si>
+    <t>{x1=6,y1=4,z1=11,p1=proc(A B) &lt;sp&gt; end,{},q1=proc(U V)&lt;sp2&gt; end,{A-&gt;x1},f1=7}</t>
   </si>
 </sst>
 </file>
@@ -615,7 +642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -666,11 +693,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -681,6 +780,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -691,66 +828,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1060,23 +1172,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="23.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1086,8 +1198,8 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1098,8 +1210,8 @@
         <v>3</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:8" ht="23.25">
       <c r="A7" s="2"/>
@@ -1107,8 +1219,8 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1119,8 +1231,8 @@
         <v>4</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:8" ht="23.25">
       <c r="A9" s="2" t="s">
@@ -1128,17 +1240,17 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="12" spans="1:8">
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1284,8 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="26" t="s">
-        <v>53</v>
+      <c r="D18" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1203,26 +1315,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1232,9 +1344,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="17" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1244,9 +1356,9 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1257,9 +1369,9 @@
         <v>3</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="17"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="23.25">
       <c r="A7" s="3"/>
@@ -1267,9 +1379,9 @@
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="17"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1280,27 +1392,27 @@
         <v>4</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="17"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:8" ht="23.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="12" spans="1:8">
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1367,18 +1479,18 @@
     </row>
     <row r="25" spans="1:8">
       <c r="D25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:D9"/>
     <mergeCell ref="E3:E8"/>
     <mergeCell ref="F4:F8"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1387,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I47"/>
+  <dimension ref="A2:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1403,49 +1515,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="23.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="45" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="23.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24" t="s">
-        <v>93</v>
+      <c r="D4" s="46"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="23.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="23.25">
       <c r="A6" s="3"/>
@@ -1453,10 +1569,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25" t="s">
-        <v>22</v>
+      <c r="D6" s="46"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="23.25">
@@ -1465,10 +1581,10 @@
         <v>36</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
-        <v>23</v>
+      <c r="D7" s="46"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="23.25">
@@ -1477,10 +1593,10 @@
         <v>37</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="25" t="s">
-        <v>40</v>
+      <c r="D8" s="46"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="23.25">
@@ -1488,19 +1604,19 @@
         <v>38</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="25" t="s">
-        <v>41</v>
+      <c r="D9" s="46"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="28" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="23.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="13" spans="1:9">
       <c r="D13" s="7" t="s">
@@ -1525,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1539,57 +1655,51 @@
         <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" t="s">
-        <v>94</v>
+      <c r="D19" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="D20" s="37" t="s">
-        <v>26</v>
+      <c r="D20" s="20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="D21" s="9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="D22" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="D23" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="D24" s="26"/>
+        <v>123</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1603,113 +1713,133 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="D29" s="26"/>
+      <c r="D29" s="9" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="G30" s="26"/>
+      <c r="I30" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="I31" t="s">
-        <v>97</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:9">
       <c r="D32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="26"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="2:9">
       <c r="D33" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="G34" s="13"/>
+      <c r="I34" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>46</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" t="s">
-        <v>98</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:9">
       <c r="D36" s="9" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="D39" s="9" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="I41" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
-        <v>66</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" t="s">
-        <v>99</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="F45" s="29"/>
       <c r="I45" t="s">
-        <v>52</v>
-      </c>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
+      <c r="D47" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="35"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="E3:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1720,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1732,85 +1862,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
+      <c r="F3" s="48" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="23.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24" t="s">
-        <v>93</v>
+      <c r="D4" s="46"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="23.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="16"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="23.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25" t="s">
-        <v>22</v>
+      <c r="D6" s="46"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="23.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="27" t="s">
-        <v>23</v>
+      <c r="D7" s="46"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="47" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="23.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28" t="s">
-        <v>24</v>
+        <v>53</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="23.25">
@@ -1818,42 +1952,42 @@
       <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="28" t="s">
-        <v>25</v>
+      <c r="D9" s="46"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="14" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="23.25">
       <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28" t="s">
-        <v>57</v>
+      <c r="D10" s="46"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="23.25">
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28" t="s">
-        <v>58</v>
+      <c r="D11" s="46"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="23.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="46"/>
     </row>
     <row r="15" spans="1:10">
       <c r="C15" s="7" t="s">
@@ -1889,182 +2023,208 @@
         <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>95</v>
+      <c r="C21" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="C22" s="30" t="s">
-        <v>26</v>
+      <c r="C22" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="C23" s="30" t="s">
-        <v>27</v>
+      <c r="C23" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="C24" s="29"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>26</v>
+        <v>136</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="C26" s="30" t="s">
-        <v>27</v>
+      <c r="C26" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="C27" s="29"/>
+      <c r="C27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>27</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="15"/>
       <c r="J29" t="s">
-        <v>108</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>59</v>
+      <c r="C31" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="C32" s="30" t="s">
-        <v>60</v>
+      <c r="C32" s="9" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="C33" s="30" t="s">
-        <v>61</v>
+      <c r="C33" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="C34" s="30" t="s">
-        <v>62</v>
-      </c>
+      <c r="C34" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="C37" s="30" t="s">
-        <v>61</v>
+      <c r="C37" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="C38" s="30" t="s">
-        <v>62</v>
-      </c>
+      <c r="C38" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="J40" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="C41" s="30" t="s">
-        <v>62</v>
-      </c>
+      <c r="C41" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="C44" s="30" t="s">
-        <v>62</v>
-      </c>
+      <c r="C44" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>62</v>
+        <v>81</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="J46" t="s">
-        <v>112</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>103</v>
+        <v>83</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="C52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="F7:F11"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A2:C2"/>
@@ -2072,6 +2232,7 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="D2:D12"/>
     <mergeCell ref="E3:E11"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2079,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N49"/>
+  <dimension ref="A2:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2092,136 +2253,137 @@
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="F2" s="22" t="s">
+      <c r="A2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="F2" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
       <c r="B3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="B4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="23.25">
-      <c r="B5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="32" t="s">
-        <v>78</v>
+      <c r="B5" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="23.25">
-      <c r="A6" s="31"/>
-      <c r="C6" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="19" t="s">
-        <v>79</v>
+      <c r="A6" s="17"/>
+      <c r="C6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="23.25">
-      <c r="D7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="34" t="s">
-        <v>80</v>
+      <c r="D7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="49" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="23.25">
       <c r="E8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="36" t="s">
-        <v>82</v>
+        <v>59</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="23.25">
       <c r="E9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="36" t="s">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="23.25">
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="34"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:10" ht="23.25">
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:10" ht="23.25">
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:10" ht="23.25">
       <c r="B13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="23.25">
       <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2230,196 +2392,194 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="6:13">
-      <c r="H19" t="s">
+    <row r="18" spans="1:8">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="K19" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="6:13">
-      <c r="F21" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="C20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="C23" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="M21" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="6:13">
-      <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="30" t="s">
+    <row r="29" spans="1:8">
+      <c r="C29" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" t="s">
         <v>87</v>
       </c>
-      <c r="K23" t="s">
+    </row>
+    <row r="33" spans="1:14">
+      <c r="C33" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" t="s">
+        <v>89</v>
+      </c>
+      <c r="N35" s="23"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="C36" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="C43" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="6:13">
-      <c r="H24" s="30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="6:13">
-      <c r="H25" s="39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="6:13">
-      <c r="H26" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="6:13">
-      <c r="H27" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="6:13">
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="M29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="6:13">
-      <c r="H30" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="6:13">
-      <c r="H31" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14">
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="M33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14">
-      <c r="H34" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14">
-      <c r="N35" s="40"/>
-    </row>
-    <row r="36" spans="6:14">
-      <c r="F36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="K36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14">
-      <c r="H37" s="30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="6:14">
-      <c r="F39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="M39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="6:14">
-      <c r="F41" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="K41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="6:14">
-      <c r="F43" t="s">
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="C48" t="s">
         <v>50</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="K43" t="s">
-        <v>125</v>
-      </c>
-      <c r="M43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="6:14">
-      <c r="H44" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="6:14">
-      <c r="F46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="M46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="6:14">
-      <c r="F48" t="s">
-        <v>99</v>
-      </c>
-      <c r="M48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:F14"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G5:G12"/>
     <mergeCell ref="H6:H11"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="F2:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2429,7 +2589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
@@ -2441,85 +2601,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23.25">
-      <c r="A2" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="D2" s="23" t="s">
+      <c r="A2" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="D2" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="23.25">
       <c r="B3" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="23.25">
-      <c r="B4" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="23.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="42" t="s">
-        <v>135</v>
+        <v>101</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="23.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="42" t="s">
-        <v>136</v>
+        <v>102</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="23.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="42" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="25" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="23.25">
-      <c r="B8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="23.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2528,16 +2688,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="35"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:13" ht="23.25">
       <c r="B11" s="3" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="27" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2547,14 +2707,14 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="23"/>
+      <c r="D12" s="44"/>
     </row>
     <row r="14" spans="1:13">
       <c r="G14" t="s">
         <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="M14" t="s">
         <v>10</v>
@@ -2565,28 +2725,28 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="M16" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="5:13">
       <c r="G17" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="5:13">
       <c r="G18" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="5:13">
       <c r="G19" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="5:13">
@@ -2594,20 +2754,20 @@
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="5:13">
       <c r="G22" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="5:13">
       <c r="G23" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="5:13">
@@ -2615,27 +2775,27 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="5:13">
       <c r="G26" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="5:13">
       <c r="G27" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="5:13">
       <c r="G28" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="5:13">
       <c r="G29" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="5:13">
@@ -2643,25 +2803,25 @@
         <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="M31" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="5:13">
       <c r="G32" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="5:13">
       <c r="G33" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="5:13">
       <c r="G34" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="5:13">
@@ -2669,12 +2829,12 @@
         <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="5:13">
       <c r="G37" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="5:13">
@@ -2682,36 +2842,36 @@
         <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="5:13">
       <c r="G41" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="5:13">
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="M44" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="5:13">
       <c r="E46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="5:13">
       <c r="G48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
